--- a/ONCHO/Impact Assessments/Burkina Faso/bf_oncho_pre_stop_2_202312_couverture.xlsx
+++ b/ONCHO/Impact Assessments/Burkina Faso/bf_oncho_pre_stop_2_202312_couverture.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Impact Assessments\Burkina Faso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{400D5C1D-2DA8-421D-96C1-525AE64A6845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB7E4C4-B51E-44B7-B2C4-5A20B7AFF9DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="186">
   <si>
     <t>type</t>
   </si>
@@ -224,9 +224,6 @@
     <t>. &lt;= ${Age}</t>
   </si>
   <si>
-    <t>Sélectionner à partir  des grappes enregistrées</t>
-  </si>
-  <si>
     <t>M suivi de 3 chiffres</t>
   </si>
   <si>
@@ -242,18 +239,6 @@
     <t>si enquêté non traité</t>
   </si>
   <si>
-    <t>${nb_ivm_avale} = 'a_Jamais'</t>
-  </si>
-  <si>
-    <t>${jamais_ivm} = 'f_Autres _raisons '</t>
-  </si>
-  <si>
-    <t>${migration}='13_autre_pays'</t>
-  </si>
-  <si>
-    <t>bf_oncho_pre_stop_2_202312_couverture</t>
-  </si>
-  <si>
     <t>list_code_enqueteur</t>
   </si>
   <si>
@@ -497,9 +482,6 @@
     <t>concat(${code_site}, '-', ${Numero_famille}, '-', ${Numero_enquete})</t>
   </si>
   <si>
-    <t>${Recu_IVM} = 'Non'</t>
-  </si>
-  <si>
     <t>9. Age (en année)</t>
   </si>
   <si>
@@ -548,9 +530,6 @@
     <t>16. Notes</t>
   </si>
   <si>
-    <t>(Dec 2023) ONCHO - 2. Formulaire Enrolement</t>
-  </si>
-  <si>
     <t>calculate</t>
   </si>
   <si>
@@ -563,9 +542,6 @@
     <t>begin repeat</t>
   </si>
   <si>
-    <t>p_bf_202312</t>
-  </si>
-  <si>
     <t>C2</t>
   </si>
   <si>
@@ -578,13 +554,43 @@
     <t>if (${C2} = 1,'',substring-after(${C1},${Numero_enquete}))</t>
   </si>
   <si>
-    <t>. &gt; 9 and .&lt;100 and not(selected(${C3}, ${Numero_enquete}))</t>
-  </si>
-  <si>
     <t>end repeat</t>
   </si>
   <si>
     <t>Le code doit avoir deux chiffre et être utilisé une seul fois par foyer.</t>
+  </si>
+  <si>
+    <t>p_bf_202312_1</t>
+  </si>
+  <si>
+    <t>(Dec 2023) ONCHO - 2. Formulaire Enrolement V1</t>
+  </si>
+  <si>
+    <t>bf_oncho_pre_stop_2_202312_couverture_v1</t>
+  </si>
+  <si>
+    <t>consentement</t>
+  </si>
+  <si>
+    <t>Le participant a-t-il donner son consentement</t>
+  </si>
+  <si>
+    <t>${consentement} = 'Oui'</t>
+  </si>
+  <si>
+    <t>${nb_ivm_avale} = 'a_Jamais' and ${consentement} = 'Oui'</t>
+  </si>
+  <si>
+    <t>${jamais_ivm} = 'f_Autres _raisons ' and ${consentement} = 'Oui'</t>
+  </si>
+  <si>
+    <t>${Recu_IVM} = 'Non' and ${consentement} = 'Oui'</t>
+  </si>
+  <si>
+    <t>${migration}='13_autre_pays' and ${consentement} = 'Oui'</t>
+  </si>
+  <si>
+    <t>. &gt; 9 and .&lt;100 and (not(selected(${C3}, ${Numero_enquete})))</t>
   </si>
 </sst>
 </file>
@@ -1031,13 +1037,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L54"/>
+  <dimension ref="A1:L52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
+      <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1131,9 +1137,6 @@
       <c r="C4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>63</v>
-      </c>
       <c r="I4" s="7" t="s">
         <v>15</v>
       </c>
@@ -1177,10 +1180,10 @@
         <v>39</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I7" s="7" t="s">
         <v>15</v>
@@ -1188,22 +1191,22 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="I8" s="7"/>
       <c r="K8" s="14" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="B9" s="16" t="s">
         <v>175</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>176</v>
       </c>
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
@@ -1218,127 +1221,182 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="I10" s="7"/>
       <c r="K10" s="14" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="I11" s="7"/>
       <c r="K11" s="15" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="I12" s="7"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="H13" s="4" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="I12" s="7"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="I13" s="7"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="I14" s="7"/>
+      <c r="I13" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>41</v>
+        <v>149</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>181</v>
+        <v>61</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>183</v>
+        <v>65</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>180</v>
       </c>
       <c r="I15" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>43</v>
+        <v>46</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>65</v>
+        <v>150</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="H16" s="4" t="s">
+        <v>180</v>
       </c>
       <c r="I16" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="K16" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="L16" s="4" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>45</v>
+        <v>155</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>66</v>
+        <v>157</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>180</v>
       </c>
       <c r="I17" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="E18" s="8"/>
+        <v>158</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>180</v>
+      </c>
       <c r="I18" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>161</v>
+        <v>47</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>180</v>
       </c>
       <c r="I19" s="7" t="s">
         <v>15</v>
@@ -1346,19 +1404,16 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>67</v>
+        <v>160</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>180</v>
       </c>
       <c r="I20" s="7" t="s">
         <v>15</v>
@@ -1366,13 +1421,16 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>165</v>
+        <v>161</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>181</v>
       </c>
       <c r="I21" s="7" t="s">
         <v>15</v>
@@ -1380,13 +1438,16 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>166</v>
+        <v>162</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>182</v>
       </c>
       <c r="I22" s="7" t="s">
         <v>15</v>
@@ -1394,16 +1455,16 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>69</v>
+        <v>183</v>
       </c>
       <c r="I23" s="7" t="s">
         <v>15</v>
@@ -1411,112 +1472,78 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>168</v>
+        <v>59</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>70</v>
+        <v>184</v>
       </c>
       <c r="I24" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="A25" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="B25" s="18"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>15</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D26" s="7"/>
+      <c r="I26" s="7"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="16" t="s">
-        <v>182</v>
-      </c>
-      <c r="B27" s="18"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="I27" s="7"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="D28" s="7"/>
-      <c r="I28" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="I29" s="7"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
+      <c r="A29" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B29" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="54" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E54" s="7"/>
+    <row r="52" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E52" s="7"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
@@ -1538,7 +1565,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B49" sqref="B49"/>
+      <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1562,120 +1589,120 @@
     </row>
     <row r="2" spans="1:3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>78</v>
-      </c>
       <c r="C6" s="9" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>11</v>
@@ -1683,10 +1710,10 @@
     </row>
     <row r="13" spans="1:3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>12</v>
@@ -1694,427 +1721,427 @@
     </row>
     <row r="14" spans="1:3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C14" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>93</v>
-      </c>
       <c r="C16" s="9" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C21" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26" spans="1:5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
     </row>
     <row r="27" spans="1:5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
     </row>
     <row r="28" spans="1:5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
     </row>
     <row r="29" spans="1:5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C29" s="9" t="s">
         <v>111</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>116</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
     </row>
     <row r="30" spans="1:5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
     </row>
     <row r="31" spans="1:5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
     </row>
     <row r="32" spans="1:5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33" spans="1:5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="34" spans="1:5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>124</v>
-      </c>
       <c r="C34" s="3" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35" spans="1:5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="36" spans="1:5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="37" spans="1:5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="38" spans="1:5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>133</v>
-      </c>
       <c r="C38" s="3" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="39" spans="1:5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="40" spans="1:5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="41" spans="1:5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="42" spans="1:5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="43" spans="1:5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="44" spans="1:5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>136</v>
+      </c>
+      <c r="B44" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="B44" s="12" t="s">
-        <v>146</v>
-      </c>
       <c r="C44" s="12" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="45" spans="1:5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="46" spans="1:5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B46" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C46" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="47" spans="1:5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D47" s="12"/>
       <c r="E47" s="12"/>
     </row>
     <row r="48" spans="1:5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D48" s="12"/>
       <c r="E48" s="12"/>
     </row>
     <row r="49" spans="1:5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D49" s="12"/>
       <c r="E49" s="12"/>
     </row>
     <row r="50" spans="1:5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D50" s="12"/>
       <c r="E50" s="12"/>
@@ -2139,7 +2166,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2161,10 +2188,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>72</v>
+        <v>177</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>19</v>

--- a/ONCHO/Impact Assessments/Burkina Faso/bf_oncho_pre_stop_2_202312_couverture.xlsx
+++ b/ONCHO/Impact Assessments/Burkina Faso/bf_oncho_pre_stop_2_202312_couverture.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Impact Assessments\Burkina Faso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB7E4C4-B51E-44B7-B2C4-5A20B7AFF9DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{389D8D0F-2ABA-49DF-89CB-AAF7403D583E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="187">
   <si>
     <t>type</t>
   </si>
@@ -590,7 +590,10 @@
     <t>${migration}='13_autre_pays' and ${consentement} = 'Oui'</t>
   </si>
   <si>
-    <t>. &gt; 9 and .&lt;100 and (not(selected(${C3}, ${Numero_enquete})))</t>
+    <t>Membre de famille</t>
+  </si>
+  <si>
+    <t>regex(., '^[0-9]{2}$') and .&lt;100 and (not(selected(${C3}, ${Numero_enquete})))</t>
   </si>
 </sst>
 </file>
@@ -1043,7 +1046,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1052,7 +1055,7 @@
     <col min="2" max="2" width="23.7109375" style="4" customWidth="1"/>
     <col min="3" max="4" width="44.28515625" style="4" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" style="4"/>
-    <col min="6" max="6" width="14.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" style="4" customWidth="1"/>
     <col min="7" max="7" width="36.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="47.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.7109375" style="4" customWidth="1"/>
@@ -1208,7 +1211,9 @@
       <c r="B9" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="C9" s="17"/>
+      <c r="C9" s="17" t="s">
+        <v>185</v>
+      </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
@@ -1257,7 +1262,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>40</v>
@@ -1266,7 +1271,7 @@
         <v>41</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>174</v>

--- a/ONCHO/Impact Assessments/Burkina Faso/bf_oncho_pre_stop_2_202312_couverture.xlsx
+++ b/ONCHO/Impact Assessments/Burkina Faso/bf_oncho_pre_stop_2_202312_couverture.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Impact Assessments\Burkina Faso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{389D8D0F-2ABA-49DF-89CB-AAF7403D583E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDCABC36-FA6C-4FEC-8529-8612A71E7293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="188">
   <si>
     <t>type</t>
   </si>
@@ -594,6 +594,9 @@
   </si>
   <si>
     <t>regex(., '^[0-9]{2}$') and .&lt;100 and (not(selected(${C3}, ${Numero_enquete})))</t>
+  </si>
+  <si>
+    <t>${Recu_IVM} = 'Oui' and ${consentement} = 'Oui'</t>
   </si>
 </sst>
 </file>
@@ -1046,7 +1049,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
+      <selection pane="bottomRight" activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1418,7 +1421,7 @@
         <v>160</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="I20" s="7" t="s">
         <v>15</v>

--- a/ONCHO/Impact Assessments/Burkina Faso/bf_oncho_pre_stop_2_202312_couverture.xlsx
+++ b/ONCHO/Impact Assessments/Burkina Faso/bf_oncho_pre_stop_2_202312_couverture.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Impact Assessments\Burkina Faso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDCABC36-FA6C-4FEC-8529-8612A71E7293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45838986-E770-4DB3-8792-940DF1815805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -560,15 +560,6 @@
     <t>Le code doit avoir deux chiffre et être utilisé une seul fois par foyer.</t>
   </si>
   <si>
-    <t>p_bf_202312_1</t>
-  </si>
-  <si>
-    <t>(Dec 2023) ONCHO - 2. Formulaire Enrolement V1</t>
-  </si>
-  <si>
-    <t>bf_oncho_pre_stop_2_202312_couverture_v1</t>
-  </si>
-  <si>
     <t>consentement</t>
   </si>
   <si>
@@ -597,6 +588,15 @@
   </si>
   <si>
     <t>${Recu_IVM} = 'Oui' and ${consentement} = 'Oui'</t>
+  </si>
+  <si>
+    <t>(Dec 2023) ONCHO - 2. Formulaire Enrolement V2</t>
+  </si>
+  <si>
+    <t>bf_oncho_pre_stop_2_202312_couverture_v2</t>
+  </si>
+  <si>
+    <t>p_bf_202312_2</t>
   </si>
 </sst>
 </file>
@@ -1049,7 +1049,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H28" sqref="H28"/>
+      <selection pane="bottomRight" activeCell="A25" sqref="A25:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1212,10 +1212,10 @@
         <v>168</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
@@ -1256,10 +1256,10 @@
         <v>47</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="I12" s="7"/>
     </row>
@@ -1274,13 +1274,13 @@
         <v>41</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>174</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I13" s="7" t="s">
         <v>15</v>
@@ -1300,7 +1300,7 @@
         <v>64</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I14" s="7" t="s">
         <v>15</v>
@@ -1329,7 +1329,7 @@
         <v>65</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I15" s="7" t="s">
         <v>15</v>
@@ -1347,7 +1347,7 @@
       </c>
       <c r="E16" s="8"/>
       <c r="H16" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I16" s="7" t="s">
         <v>15</v>
@@ -1364,7 +1364,7 @@
         <v>157</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I17" s="7" t="s">
         <v>15</v>
@@ -1387,7 +1387,7 @@
         <v>66</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I18" s="7" t="s">
         <v>15</v>
@@ -1404,7 +1404,7 @@
         <v>159</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I19" s="7" t="s">
         <v>15</v>
@@ -1421,7 +1421,7 @@
         <v>160</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="I20" s="7" t="s">
         <v>15</v>
@@ -1438,7 +1438,7 @@
         <v>161</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="I21" s="7" t="s">
         <v>15</v>
@@ -1455,7 +1455,7 @@
         <v>162</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="I22" s="7" t="s">
         <v>15</v>
@@ -1472,7 +1472,7 @@
         <v>163</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="I23" s="7" t="s">
         <v>15</v>
@@ -1492,40 +1492,40 @@
         <v>67</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I24" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="I25" s="7"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="B25" s="18"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="D26" s="7"/>
-      <c r="I26" s="7"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
@@ -2196,10 +2196,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>19</v>

--- a/ONCHO/Impact Assessments/Burkina Faso/bf_oncho_pre_stop_2_202312_couverture.xlsx
+++ b/ONCHO/Impact Assessments/Burkina Faso/bf_oncho_pre_stop_2_202312_couverture.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Impact Assessments\Burkina Faso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45838986-E770-4DB3-8792-940DF1815805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69454FE5-61E9-45C8-ABCC-1BAD9C63ECB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="182">
   <si>
     <t>type</t>
   </si>
@@ -251,15 +251,6 @@
     <t>03</t>
   </si>
   <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>05</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
     <t>DS_list</t>
   </si>
   <si>
@@ -380,30 +371,6 @@
     <t>list_nb_ivm</t>
   </si>
   <si>
-    <t xml:space="preserve">a_Jamais </t>
-  </si>
-  <si>
-    <t xml:space="preserve">a.Jamais </t>
-  </si>
-  <si>
-    <t xml:space="preserve">b_une fois </t>
-  </si>
-  <si>
-    <t xml:space="preserve">b. Une fois </t>
-  </si>
-  <si>
-    <t xml:space="preserve">c_deuxfois_ou_plus </t>
-  </si>
-  <si>
-    <t xml:space="preserve">c. Deux fois ou plus </t>
-  </si>
-  <si>
-    <t>d_Nesaitpas</t>
-  </si>
-  <si>
-    <t>d. Ne sait pas / pas de réponse</t>
-  </si>
-  <si>
     <t>list_jamais_ivm</t>
   </si>
   <si>
@@ -437,9 +404,6 @@
     <t xml:space="preserve">e.Le distributeur n'est pas venu chez moi </t>
   </si>
   <si>
-    <t xml:space="preserve">f_Autres _raisons </t>
-  </si>
-  <si>
     <t xml:space="preserve">f. Autres raisons </t>
   </si>
   <si>
@@ -515,12 +479,6 @@
     <t>13. Avez-vous déjà été traité à l’ivermectine?</t>
   </si>
   <si>
-    <t xml:space="preserve">14. En incluant la dernière campagne, combien de fois avez-vous pris des médicaments contre l'oncho ? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">14b.Si  jamais avalé médicaments contre la l'oncho pourquoi ? </t>
-  </si>
-  <si>
     <t>14c. Autres raisons</t>
   </si>
   <si>
@@ -569,18 +527,9 @@
     <t>${consentement} = 'Oui'</t>
   </si>
   <si>
-    <t>${nb_ivm_avale} = 'a_Jamais' and ${consentement} = 'Oui'</t>
-  </si>
-  <si>
-    <t>${jamais_ivm} = 'f_Autres _raisons ' and ${consentement} = 'Oui'</t>
-  </si>
-  <si>
     <t>${Recu_IVM} = 'Non' and ${consentement} = 'Oui'</t>
   </si>
   <si>
-    <t>${migration}='13_autre_pays' and ${consentement} = 'Oui'</t>
-  </si>
-  <si>
     <t>Membre de famille</t>
   </si>
   <si>
@@ -597,6 +546,39 @@
   </si>
   <si>
     <t>p_bf_202312_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14. Si déjà été traité, en incluant la dernière campagne, combien de fois avez-vous pris des médicaments contre l'oncho ? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">14b. Si jamais été traité lors des campagne TIDC contre l’oncho pourquoi ? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Une fois </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deux fois ou plus </t>
+  </si>
+  <si>
+    <t>Ne sait pas / pas de réponse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a. Une fois </t>
+  </si>
+  <si>
+    <t xml:space="preserve">b. Deux fois ou plus </t>
+  </si>
+  <si>
+    <t>c. Ne sait pas / pas de réponse</t>
+  </si>
+  <si>
+    <t>f_Autres _raisons</t>
+  </si>
+  <si>
+    <t>${jamais_ivm} = 'f_Autres _raisons' and ${consentement} = 'Oui'</t>
+  </si>
+  <si>
+    <t>${migration}='4_autre_pays' and ${consentement} = 'Oui'</t>
   </si>
 </sst>
 </file>
@@ -1045,11 +1027,11 @@
   </sheetPr>
   <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A25" sqref="A25:XFD25"/>
+      <selection pane="bottomRight" activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1186,7 +1168,7 @@
         <v>39</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>63</v>
@@ -1197,25 +1179,25 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="I8" s="7"/>
       <c r="K8" s="14" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
@@ -1229,26 +1211,26 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="I10" s="7"/>
       <c r="K10" s="14" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="I11" s="7"/>
       <c r="K11" s="15" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -1256,10 +1238,10 @@
         <v>47</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="I12" s="7"/>
     </row>
@@ -1274,13 +1256,13 @@
         <v>41</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="I13" s="7" t="s">
         <v>15</v>
@@ -1300,13 +1282,13 @@
         <v>64</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="I14" s="7" t="s">
         <v>15</v>
       </c>
       <c r="K14" s="13" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="L14" s="4" t="s">
         <v>15</v>
@@ -1320,7 +1302,7 @@
         <v>45</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>61</v>
@@ -1329,7 +1311,7 @@
         <v>65</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="I15" s="7" t="s">
         <v>15</v>
@@ -1343,11 +1325,11 @@
         <v>24</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="E16" s="8"/>
       <c r="H16" s="4" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="I16" s="7" t="s">
         <v>15</v>
@@ -1355,16 +1337,16 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>48</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="I17" s="7" t="s">
         <v>15</v>
@@ -1378,7 +1360,7 @@
         <v>49</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>62</v>
@@ -1387,7 +1369,7 @@
         <v>66</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="I18" s="7" t="s">
         <v>15</v>
@@ -1401,10 +1383,10 @@
         <v>50</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="I19" s="7" t="s">
         <v>15</v>
@@ -1418,10 +1400,10 @@
         <v>52</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="I20" s="7" t="s">
         <v>15</v>
@@ -1435,10 +1417,10 @@
         <v>54</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="I21" s="7" t="s">
         <v>15</v>
@@ -1452,10 +1434,10 @@
         <v>55</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I22" s="7" t="s">
         <v>15</v>
@@ -1469,10 +1451,10 @@
         <v>57</v>
       </c>
       <c r="C23" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="H23" s="4" t="s">
         <v>163</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>180</v>
       </c>
       <c r="I23" s="7" t="s">
         <v>15</v>
@@ -1506,14 +1488,14 @@
         <v>60</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="D25" s="7"/>
       <c r="I25" s="7"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="B26" s="18"/>
       <c r="C26" s="17"/>
@@ -1569,11 +1551,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1628,42 +1610,42 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="B5" s="9" t="s">
+    <row r="5" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="B5" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="B7" s="9" t="s">
+      <c r="B6" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C6" s="11" t="s">
         <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>76</v>
@@ -1672,37 +1654,37 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B9" s="11" t="s">
+    <row r="9" spans="1:3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="B9" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B11" s="11" t="s">
+      <c r="B10" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>79</v>
+      <c r="C10" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -1710,10 +1692,10 @@
         <v>80</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -1721,132 +1703,136 @@
         <v>80</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="C14" t="s">
-        <v>85</v>
+        <v>87</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
+      </c>
+      <c r="C18" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="C21" t="s">
-        <v>98</v>
+        <v>101</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>102</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
     </row>
     <row r="24" spans="1:5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
         <v>103</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>104</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
     </row>
     <row r="25" spans="1:5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
@@ -1856,303 +1842,255 @@
         <v>105</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>105</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
     </row>
     <row r="26" spans="1:5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
     </row>
     <row r="27" spans="1:5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
     </row>
     <row r="28" spans="1:5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
     </row>
     <row r="29" spans="1:5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="C29" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
+      <c r="B29" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="30" spans="1:5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
+        <v>111</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="31" spans="1:5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
+        <v>111</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="32" spans="1:5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="33" spans="1:5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34" spans="1:5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="35" spans="1:5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36" spans="1:5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="37" spans="1:5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B37" s="3" t="s">
+    </row>
+    <row r="38" spans="1:5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>124</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C38" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="C37" s="3" t="s">
+    </row>
+    <row r="39" spans="1:5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>124</v>
+      </c>
+      <c r="B39" s="12" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="B38" s="3" t="s">
+      <c r="C39" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="C38" s="3" t="s">
+    </row>
+    <row r="40" spans="1:5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>124</v>
+      </c>
+      <c r="B40" s="12" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="B39" s="3" t="s">
+      <c r="C40" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="C39" s="3" t="s">
+    </row>
+    <row r="41" spans="1:5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>124</v>
+      </c>
+      <c r="B41" s="12" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="B40" s="3" t="s">
+      <c r="C41" s="12" t="s">
         <v>132</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="42" spans="1:5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>136</v>
-      </c>
-      <c r="B42" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>136</v>
-      </c>
-      <c r="B43" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="B42" t="s">
+        <v>133</v>
+      </c>
+      <c r="C42" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="C43" s="12" t="s">
+      <c r="B43" s="10" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>136</v>
-      </c>
-      <c r="B44" s="12" t="s">
+      <c r="C43" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+    </row>
+    <row r="44" spans="1:5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="B44" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="C44" s="12" t="s">
+      <c r="C44" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+    </row>
+    <row r="45" spans="1:5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+    </row>
+    <row r="46" spans="1:5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="B46" s="10" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>136</v>
-      </c>
-      <c r="B45" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="C45" s="12" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>136</v>
-      </c>
-      <c r="B46" t="s">
-        <v>145</v>
-      </c>
-      <c r="C46" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="B47" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
-    </row>
-    <row r="48" spans="1:5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-    </row>
-    <row r="49" spans="1:5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-    </row>
-    <row r="50" spans="1:5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="B50" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
+      <c r="C46" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -2196,10 +2134,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>19</v>
